--- a/templates/MatTroi.xlsx
+++ b/templates/MatTroi.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thucs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\FileStore\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C28C59D-156D-4E20-89DC-4F560058D971}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E409AC82-5CE0-4C32-8A1A-26DE9FB4563C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mail" sheetId="2" r:id="rId1"/>
-    <sheet name="Convert" sheetId="3" r:id="rId2"/>
+    <sheet name="KhachHang" sheetId="3" r:id="rId2"/>
     <sheet name="thanh toán 12.2020" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mail!$A$1:$Q$4</definedName>
+    <definedName name="KhachHang">KhachHang!$A:$H</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'thanh toán 12.2020'!$A$2:$O$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Công ty TNHH MTV Điện lực Đồng Nai</t>
   </si>
@@ -203,15 +204,9 @@
     <t>Ngân hàng TMCP Quân Đội (MBbank) – Chi nhánh Long Khánh</t>
   </si>
   <si>
-    <t>thucspc@gmail.com</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>thucspc@hotmail.com</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -221,9 +216,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Mã pk</t>
-  </si>
-  <si>
     <t>Khách hàng</t>
   </si>
   <si>
@@ -231,6 +223,12 @@
   </si>
   <si>
     <t>Số tài khoản</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -239,9 +237,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +345,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -363,13 +367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,30 +512,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -543,13 +523,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -570,33 +543,64 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,6 +685,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1015,253 +1024,265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122399E6-1AE2-469F-9D33-F9331B39F040}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.796875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="20.296875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="21.796875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="27.296875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="30.3984375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="12.296875" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.3984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.19921875" style="32" customWidth="1"/>
-    <col min="10" max="10" width="34.69921875" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.59765625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="8.8984375" style="48" customWidth="1"/>
-    <col min="13" max="13" width="13.19921875" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3984375" style="48" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.3984375" style="32" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="32"/>
+    <col min="1" max="1" width="15.796875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="21.796875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="27.296875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="12.296875" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="21.3984375" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.19921875" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="34.69921875" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="7.59765625" style="34" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8984375" style="34" customWidth="1"/>
+    <col min="13" max="13" width="13.19921875" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.3984375" style="24" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="34" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:17" s="26" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="34" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49">
+    <row r="2" spans="1:17" s="26" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35">
         <f t="shared" ref="B2:Q2" si="0">COLUMN()-1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="35">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="48">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="48">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="48">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="48">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K2" s="45">
+      <c r="K2" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L2" s="45">
+      <c r="L2" s="49">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M2" s="45">
+      <c r="M2" s="49">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="N2" s="45">
+      <c r="N2" s="49">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O2" s="45">
+      <c r="O2" s="49">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P2" s="45">
+      <c r="P2" s="49">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q2" s="45">
+      <c r="Q2" s="49">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="40" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="39" t="str">
-        <f>VLOOKUP(D3,Convert!A:B,2,0)</f>
-        <v>thucspc@gmail.com</v>
-      </c>
-      <c r="D3" s="40" t="s">
+    <row r="3" spans="1:17" s="30" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="29" t="str">
+        <f>VLOOKUP(D3,KhachHang,8,0)</f>
+        <v>xx</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="46">
+      <c r="E3" s="44" t="str">
+        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+        <v>Công ty TNHH một thành viên Hoàng Trung Anh</v>
+      </c>
+      <c r="F3" s="44" t="str">
+        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+        <v>58 Phạm Hồng Thái, phường Bến Thành, quận 1, thành phố Hồ Chí Minh, Việt Nam</v>
+      </c>
+      <c r="G3" s="44" t="str">
+        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+        <v>051000X10</v>
+      </c>
+      <c r="H3" s="44" t="str">
+        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+        <v>Công ty TNHH Một thành viên Hoàng Trung Anh</v>
+      </c>
+      <c r="I3" s="44" t="str">
+        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+        <v>1017281133</v>
+      </c>
+      <c r="J3" s="44" t="str">
+        <f>VLOOKUP($D3,KhachHang,COLUMN()-3,0)</f>
+        <v>Ngân hàng TMCP Ngoại thương Việt Nam (Vietcombank) – Chi nhánh Nam Sài Gòn</v>
+      </c>
+      <c r="K3" s="32">
         <v>2020</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="32">
         <v>12</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="32">
         <v>20500</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="32">
         <v>1940</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3" s="32">
         <v>39770000</v>
       </c>
-      <c r="P3" s="46">
+      <c r="P3" s="32">
         <v>3977000</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="32">
         <v>43747000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="41" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="39" t="str">
-        <f>VLOOKUP(D4,Convert!A:B,2,0)</f>
-        <v>thucspc@hotmail.com</v>
-      </c>
-      <c r="D4" s="41" t="s">
+    <row r="4" spans="1:17" s="31" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="29" t="str">
+        <f>VLOOKUP(D4,KhachHang,8,0)</f>
+        <v>xxx</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="47">
+      <c r="E4" s="44" t="str">
+        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+        <v>Quỹ tín dụng nhân dân Xuân Định-Phòng Giao dịch Bảo Định</v>
+      </c>
+      <c r="F4" s="44" t="str">
+        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+        <v>Số 4646 QL1A, khu 1, ấp Bảo Định, xã Xuân Định, huyện Xuân Lộc, tỉnh Đồng Nai</v>
+      </c>
+      <c r="G4" s="44" t="str">
+        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+        <v>051651D01</v>
+      </c>
+      <c r="H4" s="44" t="str">
+        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+        <v>Quỹ Tín dụng nhân dân Xuân Định</v>
+      </c>
+      <c r="I4" s="44" t="str">
+        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+        <v>7241100033006</v>
+      </c>
+      <c r="J4" s="44" t="str">
+        <f>VLOOKUP($D4,KhachHang,COLUMN()-3,0)</f>
+        <v>Ngân hàng TMCP Quân Đội (MBbank) – Chi nhánh Long Khánh</v>
+      </c>
+      <c r="K4" s="33">
         <v>2020</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="33">
         <v>12</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="33">
         <v>301</v>
       </c>
-      <c r="N4" s="47">
+      <c r="N4" s="33">
         <v>1940</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="33">
         <v>583940</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="33">
         <v>0</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="33">
         <v>583940</v>
       </c>
     </row>
@@ -1284,7 +1305,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="thucspc@gmail.com" xr:uid="{8CD31263-9892-40D4-B56B-16366A973B8A}"/>
-    <hyperlink ref="C4" r:id="rId2" display="thucspc@gmail.com" xr:uid="{A4C4EA79-94F5-4196-A0AB-BFEB40570085}"/>
+    <hyperlink ref="C4" r:id="rId2" display="thucspc@gmail.com" xr:uid="{61C82A21-BFB0-4611-A989-E2F4436E69AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1294,41 +1315,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9049DDAD-821B-4894-AF6E-30FB220D9AFF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.19921875" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="42.09765625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="21.296875" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" customWidth="1"/>
+    <col min="8" max="8" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1421,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:O10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1365,36 +1445,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="19"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="E2" s="2"/>
       <c r="G2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="E3" s="2"/>
       <c r="G3" s="3"/>
       <c r="J3" s="2"/>
@@ -1408,23 +1488,23 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1434,54 +1514,54 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="25" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1491,13 +1571,13 @@
       <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
     </row>
     <row r="9" spans="1:15" s="14" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1596,16 +1676,16 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="17"/>
@@ -1624,26 +1704,26 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="H13" s="24" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="H13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="19"/>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
     </row>
     <row r="14" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
@@ -1672,49 +1752,54 @@
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="H19" s="24" t="s">
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="H19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="19"/>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
     </row>
     <row r="20" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="19"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="M19:O19"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="H13:I13"/>
@@ -1731,17 +1816,12 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.78" right="0.17" top="0.25" bottom="0.22" header="0.17" footer="0.17"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
